--- a/LemonadeStandCorporation.xlsx
+++ b/LemonadeStandCorporation.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17175" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Financials" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="50" iterateDelta="1.0000000000000001E-9" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,39 +25,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Accounts receivable</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
+    <t>Deferred revenue</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Common stock</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Tota equity</t>
+  </si>
+  <si>
+    <t>Total liabilities + equity</t>
+  </si>
+  <si>
+    <t>Debits</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>SG&amp;A expense</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Shares outstanding</t>
+  </si>
+  <si>
+    <t>Treasury stock</t>
+  </si>
   <si>
     <t>Revenue</t>
   </si>
   <si>
+    <t>Accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Accumulated amortization</t>
+  </si>
+  <si>
     <t>COGS</t>
   </si>
   <si>
-    <t>Gross Porift</t>
+    <t>Non-operating expense</t>
   </si>
   <si>
     <t>SG&amp;A</t>
   </si>
   <si>
-    <t>Non-operating income (expense)</t>
-  </si>
-  <si>
-    <t>Interest expense</t>
-  </si>
-  <si>
     <t>Operating income (EBIT)</t>
   </si>
   <si>
-    <t>Pretax Income (EBT)</t>
-  </si>
-  <si>
-    <t>Tax expense (@ 40% tax rate)</t>
-  </si>
-  <si>
-    <t>Net income</t>
-  </si>
-  <si>
-    <t>Weighted average basic shares outstanding</t>
+    <t>Interest expense, net</t>
+  </si>
+  <si>
+    <t>Pretax income (EBT)</t>
+  </si>
+  <si>
+    <t>Taxes @ 40%</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Basic weighted average shares</t>
   </si>
   <si>
     <t>EPS</t>
@@ -65,26 +129,70 @@
     <t>EBITDA</t>
   </si>
   <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
-    <t>Tax rate</t>
-  </si>
-  <si>
-    <t>Interest (income)</t>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PP&amp;E, gross</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>Accumulated depreciaton</t>
+  </si>
+  <si>
+    <t>Amortization expense</t>
+  </si>
+  <si>
+    <t>COGS, raw materials</t>
+  </si>
+  <si>
+    <t>COGS, direct labor</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>BALANCE SHEET CHECK</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Equity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,28 +209,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,39 +245,80 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,278 +597,1494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="D9:P119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
-    <col min="14" max="18" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="9" spans="6:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <v>42004</v>
+      </c>
+      <c r="J9" s="4">
+        <v>42369</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>227.4</v>
+      </c>
+      <c r="J10" s="1">
+        <f>G10+G37+G41-H52-H64-H67-H73-H80-H84-H87-H90-H93-H96</f>
+        <v>214.76</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="N10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1">
+        <f>+H36+H44</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f>G11+G38</f>
+        <v>20</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="1">
+        <f>-H47+G54+G57+G60+G78+G79</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="P11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <f>15+20</f>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f>G12+G72+G76-H81</f>
+        <v>22</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="1">
+        <f>+G66+G83+G69</f>
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1">
+        <f>G13-H46+G51</f>
+        <v>32</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="1">
+        <f>O10-O11-O12</f>
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8">
+        <f>-5-5-0.4</f>
+        <v>-10.4</v>
+      </c>
+      <c r="J14" s="8">
+        <f>G14+G49-H55-H58-H61</f>
+        <v>-15.8</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="1">
+        <f>G86</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f>G15+G63</f>
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1">
+        <f>G48</f>
+        <v>15</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <f>G16-H70</f>
+        <v>-2</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="1">
+        <f>O13-O14-O15</f>
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(G10:G16)</f>
+        <v>248.99999999999997</v>
+      </c>
+      <c r="J17" s="3">
+        <f>SUM(J10:J16)</f>
+        <v>280.95999999999998</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="1">
+        <f>O16*0.4</f>
+        <v>54.64</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="1">
+        <f>O16-O17</f>
+        <v>81.96</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f>G19+H75</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <f>G20+H40-G43</f>
+        <v>30</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ref="J19:J21" si="0">G21</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3">
+        <f>SUM(G19:G21)</f>
+        <v>50</v>
+      </c>
+      <c r="J22" s="3">
+        <f>SUM(J19:J21)</f>
+        <v>90</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="10">
+        <f>O18/8.5</f>
+        <v>9.642352941176469</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>180</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ref="J24:J25" si="1">G24</f>
+        <v>180</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="8">
+        <f>O13-(J14-G14)-(J16-G16)</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <f>-G92</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1">
+        <f>G26+H36+H44-G48+H47-G54-G57-G60-G66-G69-G78-G79-G83-G86-G89-G95</f>
+        <v>60.959999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <f>SUM(G24:G26)</f>
+        <v>199</v>
+      </c>
+      <c r="J27" s="3">
+        <f>SUM(J24:J26)</f>
+        <v>190.95999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="3">
+        <f>G22+G27</f>
+        <v>249</v>
+      </c>
+      <c r="J29" s="3">
+        <f>J22+J27</f>
+        <v>280.95999999999998</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="31" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="str">
+        <f>IF(J29=J17,"","CHECK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>9000</v>
+      </c>
+      <c r="J33">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <f>15+20+15/3</f>
+      <c r="G35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17">
+        <v>210</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="16">
+        <v>190</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="16">
+        <v>20</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17">
+        <v>60</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="16">
+        <v>60</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="16">
+        <v>30</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17">
+        <v>30</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="17">
+        <v>15</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="17">
+        <v>5</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="16">
+        <v>15</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="16">
+        <v>5</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="16">
+        <v>15</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17">
+        <v>15</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="16">
+        <v>5</v>
+      </c>
+      <c r="H54" s="17"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17">
+        <v>5</v>
+      </c>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E56" s="11"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="16">
+        <v>5</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17">
+        <v>5</v>
+      </c>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="11"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="16">
+        <v>10</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17">
+        <v>10</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="16">
+        <v>1</v>
+      </c>
+      <c r="H66" s="17"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="17">
+        <v>1</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E69" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <f>B2-B3</f>
-        <v>65</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
-        <f>D2-D3</f>
+      <c r="H69" s="17"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17">
+        <v>2</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E71" s="12"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="16">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <f>15+(30/3)+(0.4)</f>
-        <v>25.4</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <f>15+(15/3)+(2/5)</f>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H72" s="15"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="17">
+        <v>60</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <f>B4-B5</f>
-        <v>39.6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <f>D4-D5</f>
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <f>50*0.1</f>
-        <v>5</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
-        <f>50*0.1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="17">
+        <v>10</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="16">
+        <v>10</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E77" s="12"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="16">
+        <f>240*0.2</f>
+        <v>48</v>
+      </c>
+      <c r="H78" s="17"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="16">
         <v>15</v>
       </c>
-      <c r="B8" s="5">
-        <v>-2</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-5</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <f>B6-B7-B8+B9</f>
-        <v>31.6</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
-        <f>D6-D7-D8+D9</f>
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B10*B18</f>
-        <v>12.64</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
-        <f>D10*D18</f>
-        <v>12.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <f>B10-B11</f>
-        <v>18.96</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <f>D10-D11</f>
-        <v>18.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <f>(5+9)/2</f>
-        <v>7</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <f>(5+9)/2</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H79" s="17"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="16"/>
+      <c r="H80" s="17">
+        <v>15</v>
+      </c>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="17">
+        <v>48</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <f>B12/B13</f>
-        <v>2.7085714285714286</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <f>D12/D13</f>
-        <v>2.7085714285714286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5">
-        <f>B6+B17</f>
+      <c r="E83" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="16">
+        <v>15</v>
+      </c>
+      <c r="H83" s="17"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17">
+        <v>15</v>
+      </c>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E85" s="12"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="16">
+        <v>2</v>
+      </c>
+      <c r="H86" s="17"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17">
+        <v>2</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E88" s="12"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" s="16">
+        <v>40</v>
+      </c>
+      <c r="H89" s="17"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="17">
+        <v>40</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E91" s="12"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="16">
         <v>50</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <f>D6+D17</f>
+      <c r="H92" s="17"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <f>15/3+15/3+2/5</f>
-        <v>10.4</v>
-      </c>
-      <c r="D17">
-        <f>15/3+15/3+2/5</f>
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N35" s="8"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E94" s="12"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="16">
+        <f>O17</f>
+        <v>54.64</v>
+      </c>
+      <c r="H95" s="17"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="17">
+        <f>G95</f>
+        <v>54.64</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E97" s="12"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E98" s="12"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E100" s="12"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E101" s="12"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E102" s="12"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E103" s="12"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E104" s="12"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E105" s="12"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E106" s="12"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E107" s="12"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E108" s="12"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E109" s="12"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E110" s="12"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E111" s="12"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E112" s="12"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E113" s="12"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E114" s="12"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E119" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>95500+17300+211500</f>
+        <v>324300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>13.5/2.7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>140000</v>
+      </c>
+      <c r="E12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>135000</v>
+      </c>
+      <c r="E13">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>D13+25000-5000</f>
+        <v>155000</v>
+      </c>
+      <c r="E14">
+        <f>E13+20000</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>D14-D12</f>
+        <v>15000</v>
+      </c>
+      <c r="E15">
+        <f>E14-E12</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="19">
+        <v>240000</v>
+      </c>
+      <c r="E21" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F21" s="21">
+        <f>D21-E21</f>
+        <v>180000</v>
+      </c>
+      <c r="P21">
+        <f>211500-95500-17300</f>
+        <v>98700</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="19">
+        <v>260000</v>
+      </c>
+      <c r="E22" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" ref="F22:F26" si="0">D22-E22</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="19">
+        <f>+D22+95000-10000</f>
+        <v>345000</v>
+      </c>
+      <c r="E23" s="19">
+        <f>E22+85000</f>
+        <v>125000</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="19">
+        <v>345000</v>
+      </c>
+      <c r="E24" s="19">
+        <v>125000</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="19">
+        <f>D24+50000</f>
+        <v>395000</v>
+      </c>
+      <c r="E25" s="19">
+        <f>E24+50000</f>
+        <v>175000</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="H27" s="21">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="G28" s="21">
+        <v>-30000</v>
+      </c>
+      <c r="H28" s="21">
+        <f>H27+G28</f>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>80000</v>
+      </c>
+      <c r="H29" s="21">
+        <f>H28+G29</f>
+        <v>250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LemonadeStandCorporation.xlsx
+++ b/LemonadeStandCorporation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
   <si>
     <t>Cash</t>
   </si>
@@ -172,6 +172,39 @@
   </si>
   <si>
     <t>Equity</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Change in WC</t>
+  </si>
+  <si>
+    <t>Cash flow from operations</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Cash flow from investing</t>
+  </si>
+  <si>
+    <t>Net debt issuance</t>
+  </si>
+  <si>
+    <t>Common stock issuance</t>
+  </si>
+  <si>
+    <t>Common stock repurchase</t>
+  </si>
+  <si>
+    <t>Net change in cash</t>
+  </si>
+  <si>
+    <t>Cash flow from financing</t>
   </si>
 </sst>
 </file>
@@ -183,7 +216,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -276,7 +309,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -310,11 +343,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -597,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D9:P119"/>
+  <dimension ref="D9:Q119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +694,9 @@
         <f>G11+G38</f>
         <v>20</v>
       </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
       <c r="N11" s="9" t="s">
         <v>23</v>
       </c>
@@ -676,6 +719,9 @@
         <f>G12+G72+G76-H81</f>
         <v>22</v>
       </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
       <c r="N12" s="9" t="s">
         <v>25</v>
       </c>
@@ -698,6 +744,9 @@
         <f>G13-H46+G51</f>
         <v>32</v>
       </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
       <c r="N13" s="2" t="s">
         <v>26</v>
       </c>
@@ -718,6 +767,9 @@
         <f>G14+G49-H55-H58-H61</f>
         <v>-15.8</v>
       </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
       <c r="N14" s="9" t="s">
         <v>27</v>
       </c>
@@ -737,6 +789,9 @@
         <f>G15+G63</f>
         <v>10</v>
       </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
       <c r="N15" t="s">
         <v>24</v>
       </c>
@@ -759,6 +814,9 @@
         <f>G16-H70</f>
         <v>-2</v>
       </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
       <c r="N16" s="2" t="s">
         <v>28</v>
       </c>
@@ -807,6 +865,9 @@
         <f>G19+H75</f>
         <v>10</v>
       </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
@@ -819,6 +880,9 @@
         <f>G20+H40-G43</f>
         <v>30</v>
       </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
       <c r="N20" s="2" t="s">
         <v>31</v>
       </c>
@@ -834,8 +898,11 @@
         <v>50</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ref="J19:J21" si="0">G21</f>
+        <f t="shared" ref="J21" si="0">G21</f>
         <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.25">
@@ -866,8 +933,11 @@
         <v>180</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ref="J24:J25" si="1">G24</f>
+        <f t="shared" ref="J24" si="1">G24</f>
         <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>33</v>
@@ -888,6 +958,9 @@
         <f>-G92</f>
         <v>-50</v>
       </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
@@ -928,6 +1001,15 @@
       </c>
       <c r="K29" s="1"/>
     </row>
+    <row r="30" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" s="1">
+        <f>O18</f>
+        <v>81.96</v>
+      </c>
+    </row>
     <row r="31" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F31" s="2" t="s">
         <v>45</v>
@@ -936,8 +1018,24 @@
         <f>IF(J29=J17,"","CHECK")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="8">
+        <f>-(J16-G16)-(J14-G14)</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="1">
+        <f>SUM(O33:O36)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="F33" s="2" t="s">
         <v>18</v>
       </c>
@@ -947,8 +1045,24 @@
       <c r="J33">
         <v>8000</v>
       </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N33" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <f>-(J11-G11)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="N34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <f>-(J12-G12)</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E35" s="11" t="s">
         <v>35</v>
       </c>
@@ -958,8 +1072,15 @@
       <c r="H35" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="1">
+        <f>(J19-G19)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>11</v>
       </c>
@@ -975,8 +1096,15 @@
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N36" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="1">
+        <f>(J20-G20)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>0</v>
       </c>
@@ -990,8 +1118,18 @@
       <c r="H37" s="17"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N37" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" s="1">
+        <f>SUM(O30:O32)</f>
+        <v>87.36</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>3</v>
       </c>
@@ -1006,15 +1144,22 @@
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39" s="1">
+        <f>-(J13-G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1173,15 @@
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="1">
+        <f>-(J15-G15)</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>0</v>
       </c>
@@ -1043,16 +1195,33 @@
       <c r="H41" s="17"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N41" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="1">
+        <f>SUM(O39:O40)</f>
+        <v>-10</v>
+      </c>
+      <c r="Q41">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="13">
+        <f>19+82-40</f>
+        <v>61</v>
+      </c>
+      <c r="Q42" s="1">
+        <f>SUM(Q37:Q41)</f>
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>7</v>
       </c>
@@ -1066,8 +1235,15 @@
       <c r="H43" s="17"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="1">
+        <f>(J21-G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>11</v>
       </c>
@@ -1083,16 +1259,30 @@
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="1">
+        <f>J24-G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>57</v>
+      </c>
+      <c r="O45" s="1">
+        <f>J25-G25</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>37</v>
       </c>
@@ -1106,8 +1296,15 @@
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="N46" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O46" s="1">
+        <f>SUM(O43:O45)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1321,7 @@
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>11</v>
       </c>
@@ -1140,6 +1337,13 @@
       <c r="H48" s="15"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
+      <c r="N48" t="s">
+        <v>58</v>
+      </c>
+      <c r="O48" s="1">
+        <f>O37+O41+O46</f>
+        <v>27.36</v>
+      </c>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
@@ -1910,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P29"/>
+  <dimension ref="B3:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,6 +2288,151 @@
         <v>250000</v>
       </c>
     </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="24"/>
+      <c r="H39">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="24"/>
+      <c r="H40">
+        <v>-198000</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="24"/>
+      <c r="H41">
+        <v>-57000</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="24"/>
+      <c r="I43">
+        <f>SUMIFS(F35:F42,G35:G42,"Operating")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="24"/>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F46" s="24"/>
+      <c r="I46">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F47" s="24"/>
+      <c r="I47">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F48" s="24"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="24">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="24">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="24">
+        <v>-7000</v>
+      </c>
+      <c r="I54">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="24">
+        <v>11000</v>
+      </c>
+      <c r="I55">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="24"/>
+      <c r="I56">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="24">
+        <f>SUM(D49:D55)</f>
+        <v>113000</v>
+      </c>
+      <c r="I57">
+        <v>-0.5</v>
+      </c>
+      <c r="J57">
+        <f>SUM(I54:I57)</f>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D60" s="24"/>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D62" s="24"/>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D64" s="24"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
